--- a/Inputs/Now_Health_SimpleCare_ROW/multiCurrencyBenefits.xlsx
+++ b/Inputs/Now_Health_SimpleCare_ROW/multiCurrencyBenefits.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="137">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -313,23 +313,15 @@
   <si>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
+      <t xml:space="preserve">IP
+</t>
     </r>
     <r>
       <rPr>
@@ -339,17 +331,29 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USD</t>
+      <t xml:space="preserve">USD 500 per year deductible (default)
+NIL per year deductible
+USD 150 per year deductible
+USD 250 per year deductible
+USD 1,000 per year deductible
+USD 2,500 per year deductible
+USD 5,000 per year deductible
+USD 10,000 per year deductible
+USD 15,000 per year deductible</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> 500 per year deductible (default)/IP-NIL per year deductible/IP-USD 150 per year deductible/IP-</t>
+      <t xml:space="preserve">IP
+</t>
     </r>
     <r>
       <rPr>
@@ -359,29 +363,28 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USD 250 per year deductible/IP-USD 1,000 per year deductible/IP-USD 2,500 per year deductible/IP-USD 5,000 per year deductible/IP-USD 10,000 per year deductible/IP-USD 15,000 per year deductible</t>
+      <t xml:space="preserve">USD 500 per year deductible (default)
+NIL per year deductible
+USD 150 per year deductible
+USD 250 per year deductible
+USD 1,000 per year deductible 
+USD 2,500 per year deductible
+USD 5,000 per year deductible
+USD 10,000 per year deductible
+USD 15,000 per year deductible
+</t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
+      <t xml:space="preserve">OP
+</t>
     </r>
     <r>
       <rPr>
@@ -391,17 +394,23 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USD 500 per year deductible (default)</t>
+      <t xml:space="preserve">USD 500 per visit excess (default)
+20% per visit co-pay
+USD 25 per visit excess</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/IP-NIL per year deductible/IP-USD 150 per year deductible/IP-</t>
+      <t xml:space="preserve">IP
+</t>
     </r>
     <r>
       <rPr>
@@ -411,110 +420,28 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USD 250 per year deductible/IP-USD 1,000 per year deductible/IP-USD 2,500 per year deductible/IP-USD 5,000 per year deductible/IP-USD 10,000 per year deductible/IP-USD 15,000 per year deductible/OP-USD 500 per visit excess (default)/OP-20% per visit co-pay/OP-USD 25 per visit excess</t>
+      <t xml:space="preserve">USD 500 per year deductible (default)
+NIL per year deductible
+USD 150 per year deductible
+USD 250 per year deductible
+USD 1,000 per year deductible
+USD 2,500 per year deductible
+USD 5,000 per year deductible
+USD 10,000 per year deductible
+USD 15,000 per year deductible
+</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR 800,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR 1,200,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered within OP limit of EUR 625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered within OP limit of EUR 2,000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered with sub-limits up to EUR 80,000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered with sub-limits up to EUR 120,000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered within OP limit of EUR 625 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to EUR 1,000 within OP limit of EUR 2,000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to EUR 48 per visit within OP limit of EUR 625
-(Combined up to 10 visits with Alternative treatment)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to EUR 64 per visit within OP limit of EUR 2,000 
-(Combined up to 10 visits with Alternative treatment)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acute Condition being suffered by a New Born baby of an Insured Person which manifests itself within 30 days following birth covered up to  EUR 20,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acute Condition being suffered by a New Born baby of an Insured Person which manifests itself within 30 days following birth covered up to EUR 28,000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to EUR 240 with 20% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complementary medicine covered up to EUR 48 per visit within OP limit of EUR 625 
-Chinese medicine &amp; Ayurvedic treatment covered up to EUR 24 per visit within OP limit of EUR 625 
-(Combined up to 10 visits with Physiotherapy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complementary medicine covered up to EUR 64 per visit within OP limit of EUR 2,000 
-Chinese medicine &amp; Ayurvedic treatment covered up to EUR 32 per visit within OP limit of EUR 2,000 
-(Combined up to 10 visits with Physiotherapy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to EUR 240 up to a maximum of 10 sessions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to EUR 320 up to a maximum of 10 sessions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to EUR 80,000
-(Combined with repatriation benefit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP-EUR 400 per year deductible (default)\IP-NIL per year deductible\IP-EUR 120 per year deductible\IP-EUR 200 per year deductible\IP-EUR 800 per year deductible\IP-EUR 2,000 per year deductible\IP-EUR 4,000 per year deductible\IP-EUR 8,000 per year deductible\IP-EUR 12,000 per year deductible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP-EUR 400 per year deductible (default)\IP-NIL per year deductible\IP-EUR 120 per year deductible\IP-EUR 200 per year deductible\IP-EUR 800 per year deductible\IP-EUR 2,000 per year deductible\IP-EUR 4,000 per year deductible\IP-EUR 8,000 per year deductible\IP-EUR 12,000 per year deductible\OP-EUR 400 per visit excess (default)\OP-20% per visit co-pay\OP-EUR 20 per visit excess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBP 625,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBP 937,500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered within OP limit of GBP 625 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered within OP limit of GBP 1,550 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered ith sub-limits up to GBP 62,500 </t>
-  </si>
-  <si>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Covered with sub-limits up to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">GBP</t>
+      <t xml:space="preserve">OP
+</t>
     </r>
     <r>
       <rPr>
@@ -524,28 +451,84 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> 93,750 </t>
+      <t xml:space="preserve">USD 500 per visit excess (default)
+20% per visit co-pay
+USD 25 per visit excess</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">EUR 800,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUR 1,200,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered within OP limit of EUR 625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered within OP limit of EUR 2,000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered with sub-limits up to EUR 80,000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered with sub-limits up to EUR 120,000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered within OP limit of EUR 625 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to EUR 1,000 within OP limit of EUR 2,000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to EUR 48 per visit within OP limit of EUR 625
+(Combined up to 10 visits with Alternative treatment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to EUR 64 per visit within OP limit of EUR 2,000 
+(Combined up to 10 visits with Alternative treatment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acute Condition being suffered by a New Born baby of an Insured Person which manifests itself within 30 days following birth covered up to  EUR 20,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acute Condition being suffered by a New Born baby of an Insured Person which manifests itself within 30 days following birth covered up to EUR 28,000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to EUR 240 with 20% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complementary medicine covered up to EUR 48 per visit within OP limit of EUR 625 
+Chinese medicine &amp; Ayurvedic treatment covered up to EUR 24 per visit within OP limit of EUR 625 
+(Combined up to 10 visits with Physiotherapy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complementary medicine covered up to EUR 64 per visit within OP limit of EUR 2,000 
+Chinese medicine &amp; Ayurvedic treatment covered up to EUR 32 per visit within OP limit of EUR 2,000 
+(Combined up to 10 visits with Physiotherapy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to EUR 240 up to a maximum of 10 sessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to EUR 320 up to a maximum of 10 sessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to EUR 80,000
+(Combined with repatriation benefit)</t>
   </si>
   <si>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Covered with sub-limits up to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">GBP</t>
+      <t xml:space="preserve">IP
+</t>
     </r>
     <r>
       <rPr>
@@ -555,8 +538,94 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> 93,750</t>
+      <t xml:space="preserve">EUR 400 per year deductible
+NIL per year deductible
+EUR 120 per year deductible
+EUR 200 per year deductible
+EUR 800 per year deductible
+EUR 2,000 per year deductible
+EUR 4,000 per year deductible
+EUR 8,000 per year deductible
+EUR 12,000 per year deductible</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">IP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">EUR 400 per year deductible
+NIL per year deductible
+EUR 120 per year deductible
+EUR 200 per year deductible
+EUR 800 per year deductible
+EUR 2,000 per year deductible
+EUR 4,000 per year deductible
+EUR 8,000 per year deductible
+EUR 12,000 per year deductible
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">OP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">EUR 400 per visit excess
+20% per visit co-pay
+EUR 20 per visit excess</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">GBP 625,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBP 937,500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered within OP limit of GBP 625 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered within OP limit of GBP 1,550 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered ith sub-limits up to GBP 62,500 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered with sub-limits up to GBP 93,750 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered with sub-limits up to GBP 93,750</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to GBP 780 within OP limit of GBP 1,550 </t>
@@ -602,10 +671,93 @@
 (Combined with repatriation benefit)</t>
   </si>
   <si>
-    <t xml:space="preserve">IP-GBP 310 per year deductible (default)\IP-NIL per year deductible\IP-GBP 95 per year deductible\IP-GBP 155 per year deductible\IP-GBP 625 per year deductible\IP-GBP 1,550 per year deductible\IP-GBP 3,125 per year deductible\IP-GBP 6,250 per year deductible\IP-GBP 9,375 per year deductible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP-GBP 310 per year deductible (default)\IP-NIL per year deductible\IP-GBP 95 per year deductible\IP-GBP 155 per year deductible\IP-GBP 625 per year deductible\IP-GBP 1,550 per year deductible\IP-GBP 3,125 per year deductible\IP-GBP 6,250 per year deductible\IP-GBP 9,375 per year deductible\OP-GBP 310 per visit excess (default)\OP-20% per visit co-pay\OP-GBP 15 per visit excess</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">IP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">GBP 310 per year deductible (default)
+Nil per year deductible
+GBP 95 per year deductible
+GBP 155 per year deductible
+GBP 625 per year deductible
+GBP 1,550 per year deductible
+GBP 3,125 per year deductible
+GBP 6,250 per year deductible
+GBP 9,375 per year deductible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">IP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">GBP 310 per year deductible (default)
+Nil per year deductible
+GBP 95 per year deductible
+GBP 155 per year deductible
+GBP 625 per year deductible
+GBP 1,550 per year deductible
+GBP 3,125 per year deductible
+GBP 6,250 per year deductible
+GBP 9,375 per year deductible
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">OP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">GBP 310 per visit excess (default)
+20% per visit  co-pay
+GBP 15 per visit excess</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -616,7 +768,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -753,16 +905,10 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -782,12 +928,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -879,7 +1019,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1040,7 +1180,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1104,7 +1248,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1112,7 +1256,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1195,8 +1339,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2140,7 +2284,7 @@
       <c r="F52" s="21"/>
       <c r="G52" s="22"/>
     </row>
-    <row r="53" customFormat="false" ht="134.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="200.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="38" t="s">
         <v>5</v>
       </c>
@@ -2150,160 +2294,160 @@
       <c r="C53" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="E53" s="40" t="s">
-        <v>94</v>
+      <c r="E53" s="41" t="s">
+        <v>95</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="22"/>
     </row>
     <row r="54" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="41"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="21"/>
-      <c r="C54" s="42"/>
+      <c r="C54" s="43"/>
       <c r="D54" s="21"/>
-      <c r="E54" s="42"/>
+      <c r="E54" s="43"/>
       <c r="F54" s="21"/>
       <c r="G54" s="22"/>
     </row>
     <row r="55" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="41"/>
+      <c r="A55" s="42"/>
       <c r="B55" s="21"/>
-      <c r="C55" s="42"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="21"/>
-      <c r="E55" s="42"/>
+      <c r="E55" s="43"/>
       <c r="F55" s="21"/>
       <c r="G55" s="22"/>
     </row>
     <row r="56" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="41"/>
+      <c r="A56" s="42"/>
       <c r="B56" s="21"/>
-      <c r="C56" s="42"/>
+      <c r="C56" s="43"/>
       <c r="D56" s="21"/>
-      <c r="E56" s="42"/>
+      <c r="E56" s="43"/>
       <c r="F56" s="21"/>
       <c r="G56" s="22"/>
     </row>
     <row r="57" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="41"/>
+      <c r="A57" s="42"/>
       <c r="B57" s="21"/>
-      <c r="C57" s="43"/>
+      <c r="C57" s="44"/>
       <c r="D57" s="21"/>
-      <c r="E57" s="43"/>
+      <c r="E57" s="44"/>
       <c r="F57" s="21"/>
       <c r="G57" s="22"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="44"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
-      <c r="F58" s="45"/>
+      <c r="F58" s="46"/>
       <c r="G58" s="11"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="44"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
-      <c r="F59" s="45"/>
+      <c r="F59" s="46"/>
       <c r="G59" s="11"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="46"/>
+      <c r="A60" s="47"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
-      <c r="F60" s="45"/>
+      <c r="F60" s="46"/>
       <c r="G60" s="11"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="47"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="48"/>
       <c r="G61" s="11"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="44"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="49"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="50"/>
       <c r="G62" s="11"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="44"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
-      <c r="F63" s="45"/>
+      <c r="F63" s="46"/>
       <c r="G63" s="11"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="44"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
-      <c r="F64" s="45"/>
+      <c r="F64" s="46"/>
       <c r="G64" s="11"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="50"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
       <c r="F65" s="32"/>
       <c r="G65" s="11"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="44"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
       <c r="G66" s="11"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="44"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="53"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="54"/>
       <c r="G67" s="11"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="44"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="55"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="56"/>
       <c r="G68" s="11"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G69" s="11"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="56"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
       <c r="G70" s="11"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2316,16 +2460,16 @@
       <c r="G71" s="11"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="57"/>
-      <c r="B72" s="58"/>
+      <c r="A72" s="58"/>
+      <c r="B72" s="59"/>
       <c r="C72" s="35"/>
-      <c r="D72" s="58"/>
+      <c r="D72" s="59"/>
       <c r="E72" s="35"/>
-      <c r="F72" s="58"/>
+      <c r="F72" s="59"/>
       <c r="G72" s="11"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="57"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -2335,56 +2479,56 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="47"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="48"/>
       <c r="G74" s="11"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="47"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="48"/>
       <c r="G75" s="11"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="47"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="48"/>
       <c r="G76" s="11"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="47"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="48"/>
       <c r="G77" s="11"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="47"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="48"/>
       <c r="G78" s="11"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="47"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="48"/>
       <c r="G79" s="11"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2393,7 +2537,7 @@
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="45"/>
+      <c r="F80" s="46"/>
       <c r="G80" s="11"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3388,8 +3532,8 @@
   </sheetPr>
   <dimension ref="A1:G1022"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3432,13 +3576,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
@@ -3524,10 +3668,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="11"/>
@@ -3667,13 +3811,13 @@
         <v>34</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="11"/>
@@ -3702,10 +3846,10 @@
         <v>40</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
@@ -3721,10 +3865,10 @@
         <v>40</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
@@ -3740,10 +3884,10 @@
         <v>20</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
@@ -3778,10 +3922,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
@@ -3797,10 +3941,10 @@
         <v>20</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="22"/>
@@ -3883,13 +4027,13 @@
         <v>55</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="22"/>
@@ -3921,7 +4065,7 @@
         <v>20</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
@@ -4007,10 +4151,10 @@
         <v>20</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
@@ -4026,10 +4170,10 @@
         <v>20</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F35" s="28"/>
       <c r="G35" s="29"/>
@@ -4042,13 +4186,13 @@
         <v>72</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="29"/>
@@ -4333,7 +4477,7 @@
       <c r="F52" s="21"/>
       <c r="G52" s="22"/>
     </row>
-    <row r="53" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="200.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="38" t="s">
         <v>5</v>
       </c>
@@ -4341,162 +4485,162 @@
         <v>92</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="E53" s="40" t="s">
-        <v>114</v>
+      <c r="D53" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" s="41" t="s">
+        <v>115</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="22"/>
     </row>
     <row r="54" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="41"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="21"/>
-      <c r="C54" s="42"/>
+      <c r="C54" s="43"/>
       <c r="D54" s="21"/>
-      <c r="E54" s="42"/>
+      <c r="E54" s="43"/>
       <c r="F54" s="21"/>
       <c r="G54" s="22"/>
     </row>
     <row r="55" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="41"/>
+      <c r="A55" s="42"/>
       <c r="B55" s="21"/>
-      <c r="C55" s="42"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="21"/>
-      <c r="E55" s="42"/>
+      <c r="E55" s="43"/>
       <c r="F55" s="21"/>
       <c r="G55" s="22"/>
     </row>
     <row r="56" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="41"/>
+      <c r="A56" s="42"/>
       <c r="B56" s="21"/>
-      <c r="C56" s="42"/>
+      <c r="C56" s="43"/>
       <c r="D56" s="21"/>
-      <c r="E56" s="42"/>
+      <c r="E56" s="43"/>
       <c r="F56" s="21"/>
       <c r="G56" s="22"/>
     </row>
     <row r="57" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="41"/>
+      <c r="A57" s="42"/>
       <c r="B57" s="21"/>
-      <c r="C57" s="43"/>
+      <c r="C57" s="44"/>
       <c r="D57" s="21"/>
-      <c r="E57" s="43"/>
+      <c r="E57" s="44"/>
       <c r="F57" s="21"/>
       <c r="G57" s="22"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="44"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
-      <c r="F58" s="45"/>
+      <c r="F58" s="46"/>
       <c r="G58" s="11"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="44"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
-      <c r="F59" s="45"/>
+      <c r="F59" s="46"/>
       <c r="G59" s="11"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="46"/>
+      <c r="A60" s="47"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
-      <c r="F60" s="45"/>
+      <c r="F60" s="46"/>
       <c r="G60" s="11"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="47"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="48"/>
       <c r="G61" s="11"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="44"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="49"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="50"/>
       <c r="G62" s="11"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="44"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
-      <c r="F63" s="45"/>
+      <c r="F63" s="46"/>
       <c r="G63" s="11"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="44"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
-      <c r="F64" s="45"/>
+      <c r="F64" s="46"/>
       <c r="G64" s="11"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="50"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
       <c r="F65" s="32"/>
       <c r="G65" s="11"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="44"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
       <c r="G66" s="11"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="44"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="53"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="54"/>
       <c r="G67" s="11"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="44"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="55"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="56"/>
       <c r="G68" s="11"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G69" s="11"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="56"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
       <c r="G70" s="11"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4509,7 +4653,7 @@
       <c r="G71" s="11"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="57"/>
+      <c r="A72" s="58"/>
       <c r="B72" s="35"/>
       <c r="C72" s="35"/>
       <c r="D72" s="35"/>
@@ -4518,7 +4662,7 @@
       <c r="G72" s="11"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="57"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -4528,56 +4672,56 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="47"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="48"/>
       <c r="G74" s="11"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="47"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="48"/>
       <c r="G75" s="11"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="47"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="48"/>
       <c r="G76" s="11"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="47"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="48"/>
       <c r="G77" s="11"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="47"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="48"/>
       <c r="G78" s="11"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="47"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="48"/>
       <c r="G79" s="11"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4586,7 +4730,7 @@
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="45"/>
+      <c r="F80" s="46"/>
       <c r="G80" s="11"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5580,8 +5724,8 @@
   </sheetPr>
   <dimension ref="A1:G1022"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5624,13 +5768,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
@@ -5716,10 +5860,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="11"/>
@@ -5859,13 +6003,13 @@
         <v>34</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="11"/>
@@ -5894,10 +6038,10 @@
         <v>40</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
@@ -5913,10 +6057,10 @@
         <v>40</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
@@ -5932,10 +6076,10 @@
         <v>20</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
@@ -5970,10 +6114,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
@@ -5989,10 +6133,10 @@
         <v>20</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="22"/>
@@ -6075,13 +6219,13 @@
         <v>55</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="22"/>
@@ -6113,7 +6257,7 @@
         <v>20</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
@@ -6199,10 +6343,10 @@
         <v>20</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
@@ -6218,10 +6362,10 @@
         <v>20</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F35" s="28"/>
       <c r="G35" s="29"/>
@@ -6234,13 +6378,13 @@
         <v>72</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="29"/>
@@ -6525,7 +6669,7 @@
       <c r="F52" s="21"/>
       <c r="G52" s="22"/>
     </row>
-    <row r="53" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="200.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="38" t="s">
         <v>5</v>
       </c>
@@ -6533,162 +6677,162 @@
         <v>92</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="22"/>
     </row>
     <row r="54" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="41"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="21"/>
-      <c r="C54" s="42"/>
+      <c r="C54" s="43"/>
       <c r="D54" s="21"/>
-      <c r="E54" s="42"/>
+      <c r="E54" s="43"/>
       <c r="F54" s="21"/>
       <c r="G54" s="22"/>
     </row>
     <row r="55" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="41"/>
+      <c r="A55" s="42"/>
       <c r="B55" s="21"/>
-      <c r="C55" s="42"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="21"/>
-      <c r="E55" s="42"/>
+      <c r="E55" s="43"/>
       <c r="F55" s="21"/>
       <c r="G55" s="22"/>
     </row>
     <row r="56" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="41"/>
+      <c r="A56" s="42"/>
       <c r="B56" s="21"/>
-      <c r="C56" s="42"/>
+      <c r="C56" s="43"/>
       <c r="D56" s="21"/>
-      <c r="E56" s="42"/>
+      <c r="E56" s="43"/>
       <c r="F56" s="21"/>
       <c r="G56" s="22"/>
     </row>
     <row r="57" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="41"/>
+      <c r="A57" s="42"/>
       <c r="B57" s="21"/>
-      <c r="C57" s="43"/>
+      <c r="C57" s="44"/>
       <c r="D57" s="21"/>
-      <c r="E57" s="43"/>
+      <c r="E57" s="44"/>
       <c r="F57" s="21"/>
       <c r="G57" s="22"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="44"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
-      <c r="F58" s="45"/>
+      <c r="F58" s="46"/>
       <c r="G58" s="11"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="44"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
-      <c r="F59" s="45"/>
+      <c r="F59" s="46"/>
       <c r="G59" s="11"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="46"/>
+      <c r="A60" s="47"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
-      <c r="F60" s="45"/>
+      <c r="F60" s="46"/>
       <c r="G60" s="11"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="47"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="48"/>
       <c r="G61" s="11"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="44"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="49"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="50"/>
       <c r="G62" s="11"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="44"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
-      <c r="F63" s="45"/>
+      <c r="F63" s="46"/>
       <c r="G63" s="11"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="44"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
-      <c r="F64" s="45"/>
+      <c r="F64" s="46"/>
       <c r="G64" s="11"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="50"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
       <c r="F65" s="32"/>
       <c r="G65" s="11"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="44"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
       <c r="G66" s="11"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="44"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="53"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="54"/>
       <c r="G67" s="11"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="44"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="55"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="56"/>
       <c r="G68" s="11"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G69" s="11"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="56"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
       <c r="G70" s="11"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6701,7 +6845,7 @@
       <c r="G71" s="11"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="57"/>
+      <c r="A72" s="58"/>
       <c r="B72" s="35"/>
       <c r="C72" s="35"/>
       <c r="D72" s="35"/>
@@ -6710,7 +6854,7 @@
       <c r="G72" s="11"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="57"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -6720,56 +6864,56 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="47"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="48"/>
       <c r="G74" s="11"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="47"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="48"/>
       <c r="G75" s="11"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="47"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="48"/>
       <c r="G76" s="11"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="47"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="48"/>
       <c r="G77" s="11"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="47"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="48"/>
       <c r="G78" s="11"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="47"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="48"/>
       <c r="G79" s="11"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6778,7 +6922,7 @@
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="45"/>
+      <c r="F80" s="46"/>
       <c r="G80" s="11"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
